--- a/KATER/dati raccolti karter.xlsx
+++ b/KATER/dati raccolti karter.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="misure grossolane" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,13 +11,14 @@
     <sheet name="misure_meno_grossolane" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="misure_intorno_sensibile" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="caduta_libera" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="caduta_libera_girata" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">h (cm) (massa 1.4kg)</t>
   </si>
@@ -77,6 +78,9 @@
   </si>
   <si>
     <t>t10</t>
+  </si>
+  <si>
+    <t>h(cm)</t>
   </si>
 </sst>
 </file>
@@ -141,7 +145,7 @@
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
@@ -149,6 +153,12 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="161" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2219,4 +2229,505 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="8">
+        <v>10</v>
+      </c>
+      <c r="C1" s="8">
+        <v>15</v>
+      </c>
+      <c r="D1" s="8">
+        <v>20</v>
+      </c>
+      <c r="E1" s="8">
+        <v>25</v>
+      </c>
+      <c r="F1" s="8">
+        <v>30</v>
+      </c>
+      <c r="G1" s="8">
+        <v>35</v>
+      </c>
+      <c r="H1" s="8">
+        <v>40</v>
+      </c>
+      <c r="I1" s="8">
+        <v>45</v>
+      </c>
+      <c r="J1" s="8">
+        <v>50</v>
+      </c>
+      <c r="K1" s="8">
+        <v>55</v>
+      </c>
+      <c r="L1" s="8">
+        <v>60</v>
+      </c>
+      <c r="M1" s="8">
+        <v>65</v>
+      </c>
+      <c r="N1" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>138</v>
+      </c>
+      <c r="C2" s="8">
+        <v>179</v>
+      </c>
+      <c r="D2" s="8">
+        <v>198</v>
+      </c>
+      <c r="E2" s="8">
+        <v>229</v>
+      </c>
+      <c r="F2" s="8">
+        <v>242</v>
+      </c>
+      <c r="G2" s="8">
+        <v>262</v>
+      </c>
+      <c r="H2" s="8">
+        <v>280</v>
+      </c>
+      <c r="I2" s="8">
+        <v>297</v>
+      </c>
+      <c r="J2" s="8">
+        <v>321</v>
+      </c>
+      <c r="K2" s="8">
+        <v>331</v>
+      </c>
+      <c r="L2" s="8">
+        <v>355</v>
+      </c>
+      <c r="M2" s="8">
+        <v>365</v>
+      </c>
+      <c r="N2" s="8">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>143</v>
+      </c>
+      <c r="C3" s="8">
+        <v>169</v>
+      </c>
+      <c r="D3" s="8">
+        <v>200</v>
+      </c>
+      <c r="E3" s="8">
+        <v>220</v>
+      </c>
+      <c r="F3" s="8">
+        <v>251</v>
+      </c>
+      <c r="G3" s="8">
+        <v>263</v>
+      </c>
+      <c r="H3" s="8">
+        <v>290</v>
+      </c>
+      <c r="I3" s="8">
+        <v>297</v>
+      </c>
+      <c r="J3" s="8">
+        <v>316</v>
+      </c>
+      <c r="K3" s="8">
+        <v>333</v>
+      </c>
+      <c r="L3" s="8">
+        <v>350</v>
+      </c>
+      <c r="M3" s="8">
+        <v>360</v>
+      </c>
+      <c r="N3" s="8">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>137</v>
+      </c>
+      <c r="C4" s="8">
+        <v>169</v>
+      </c>
+      <c r="D4" s="8">
+        <v>206</v>
+      </c>
+      <c r="E4" s="8">
+        <v>221</v>
+      </c>
+      <c r="F4" s="8">
+        <v>243</v>
+      </c>
+      <c r="G4" s="8">
+        <v>269</v>
+      </c>
+      <c r="H4" s="8">
+        <v>283</v>
+      </c>
+      <c r="I4" s="8">
+        <v>301</v>
+      </c>
+      <c r="J4" s="8">
+        <v>324</v>
+      </c>
+      <c r="K4" s="8">
+        <v>330</v>
+      </c>
+      <c r="L4" s="8">
+        <v>345</v>
+      </c>
+      <c r="M4" s="8">
+        <v>359</v>
+      </c>
+      <c r="N4" s="8">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8">
+        <v>139</v>
+      </c>
+      <c r="C5" s="8">
+        <v>170</v>
+      </c>
+      <c r="D5" s="8">
+        <v>198</v>
+      </c>
+      <c r="E5" s="8">
+        <v>222</v>
+      </c>
+      <c r="F5" s="8">
+        <v>242</v>
+      </c>
+      <c r="G5" s="8">
+        <v>268</v>
+      </c>
+      <c r="H5" s="8">
+        <v>281</v>
+      </c>
+      <c r="I5" s="8">
+        <v>297</v>
+      </c>
+      <c r="J5" s="8">
+        <v>315</v>
+      </c>
+      <c r="K5" s="8">
+        <v>330</v>
+      </c>
+      <c r="L5" s="8">
+        <v>345</v>
+      </c>
+      <c r="M5" s="8">
+        <v>370</v>
+      </c>
+      <c r="N5" s="8">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8">
+        <v>138</v>
+      </c>
+      <c r="C6" s="8">
+        <v>174</v>
+      </c>
+      <c r="D6" s="8">
+        <v>197</v>
+      </c>
+      <c r="E6" s="8">
+        <v>220</v>
+      </c>
+      <c r="F6" s="8">
+        <v>243</v>
+      </c>
+      <c r="G6" s="8">
+        <v>262</v>
+      </c>
+      <c r="H6" s="8">
+        <v>290</v>
+      </c>
+      <c r="I6" s="8">
+        <v>298</v>
+      </c>
+      <c r="J6" s="8">
+        <v>315</v>
+      </c>
+      <c r="K6" s="8">
+        <v>330</v>
+      </c>
+      <c r="L6" s="8">
+        <v>345</v>
+      </c>
+      <c r="M6" s="8">
+        <v>360</v>
+      </c>
+      <c r="N6" s="8">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8">
+        <v>138</v>
+      </c>
+      <c r="C7" s="8">
+        <v>171</v>
+      </c>
+      <c r="D7" s="8">
+        <v>197</v>
+      </c>
+      <c r="E7" s="8">
+        <v>222</v>
+      </c>
+      <c r="F7" s="8">
+        <v>241</v>
+      </c>
+      <c r="G7" s="8">
+        <v>261</v>
+      </c>
+      <c r="H7" s="8">
+        <v>290</v>
+      </c>
+      <c r="I7" s="8">
+        <v>298</v>
+      </c>
+      <c r="J7" s="8">
+        <v>315</v>
+      </c>
+      <c r="K7" s="8">
+        <v>338</v>
+      </c>
+      <c r="L7" s="8">
+        <v>349</v>
+      </c>
+      <c r="M7" s="8">
+        <v>358</v>
+      </c>
+      <c r="N7" s="8">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8">
+        <v>143</v>
+      </c>
+      <c r="C8" s="8">
+        <v>170</v>
+      </c>
+      <c r="D8" s="8">
+        <v>198</v>
+      </c>
+      <c r="E8" s="8">
+        <v>222</v>
+      </c>
+      <c r="F8" s="8">
+        <v>249</v>
+      </c>
+      <c r="G8" s="8">
+        <v>263</v>
+      </c>
+      <c r="H8" s="8">
+        <v>282</v>
+      </c>
+      <c r="I8" s="8">
+        <v>299</v>
+      </c>
+      <c r="J8" s="8">
+        <v>315</v>
+      </c>
+      <c r="K8" s="8">
+        <v>332</v>
+      </c>
+      <c r="L8" s="8">
+        <v>351</v>
+      </c>
+      <c r="M8" s="8">
+        <v>360</v>
+      </c>
+      <c r="N8" s="8">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="8">
+        <v>138</v>
+      </c>
+      <c r="C9" s="8">
+        <v>171</v>
+      </c>
+      <c r="D9" s="8">
+        <v>197</v>
+      </c>
+      <c r="E9" s="8">
+        <v>220</v>
+      </c>
+      <c r="F9" s="8">
+        <v>243</v>
+      </c>
+      <c r="G9" s="8">
+        <v>269</v>
+      </c>
+      <c r="H9" s="8">
+        <v>282</v>
+      </c>
+      <c r="I9" s="8">
+        <v>305</v>
+      </c>
+      <c r="J9" s="8">
+        <v>322</v>
+      </c>
+      <c r="K9" s="8">
+        <v>330</v>
+      </c>
+      <c r="L9" s="8">
+        <v>345</v>
+      </c>
+      <c r="M9" s="8">
+        <v>370</v>
+      </c>
+      <c r="N9" s="8">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8">
+        <v>146</v>
+      </c>
+      <c r="C10" s="8">
+        <v>169</v>
+      </c>
+      <c r="D10" s="8">
+        <v>197</v>
+      </c>
+      <c r="E10" s="8">
+        <v>220</v>
+      </c>
+      <c r="F10" s="8">
+        <v>243</v>
+      </c>
+      <c r="G10" s="8">
+        <v>263</v>
+      </c>
+      <c r="H10" s="8">
+        <v>287</v>
+      </c>
+      <c r="I10" s="8">
+        <v>298</v>
+      </c>
+      <c r="J10" s="8">
+        <v>315</v>
+      </c>
+      <c r="K10" s="8">
+        <v>331</v>
+      </c>
+      <c r="L10" s="8">
+        <v>353</v>
+      </c>
+      <c r="M10" s="8">
+        <v>359</v>
+      </c>
+      <c r="N10" s="8">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="8">
+        <v>144</v>
+      </c>
+      <c r="C11" s="8">
+        <v>169</v>
+      </c>
+      <c r="D11" s="8">
+        <v>197</v>
+      </c>
+      <c r="E11" s="8">
+        <v>227</v>
+      </c>
+      <c r="F11" s="8">
+        <v>244</v>
+      </c>
+      <c r="G11" s="8">
+        <v>269</v>
+      </c>
+      <c r="H11" s="8">
+        <v>281</v>
+      </c>
+      <c r="I11" s="8">
+        <v>301</v>
+      </c>
+      <c r="J11" s="8">
+        <v>314</v>
+      </c>
+      <c r="K11" s="8">
+        <v>338</v>
+      </c>
+      <c r="L11" s="8">
+        <v>345</v>
+      </c>
+      <c r="M11" s="8">
+        <v>361</v>
+      </c>
+      <c r="N11" s="8">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>